--- a/search/excel.xlsx
+++ b/search/excel.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\5. Activities\fourbeats\search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB6BC8-BBE2-49D8-BEBD-061F23C91BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Saturday" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sunday" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Monday" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Tuesday" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Wednesday" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Thursday" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Friday" sheetId="7" r:id="rId10"/>
+    <sheet name="Saturday" sheetId="1" r:id="rId1"/>
+    <sheet name="Sunday" sheetId="2" r:id="rId2"/>
+    <sheet name="Monday" sheetId="3" r:id="rId3"/>
+    <sheet name="Tuesday" sheetId="4" r:id="rId4"/>
+    <sheet name="Wednesday" sheetId="5" r:id="rId5"/>
+    <sheet name="Thursday" sheetId="6" r:id="rId6"/>
+    <sheet name="Friday" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -107,20 +116,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -131,11 +141,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -149,59 +165,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -391,20 +385,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -420,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -428,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -436,7 +433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -444,7 +441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -452,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -460,7 +457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -468,7 +465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -476,7 +473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -484,7 +481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -493,21 +490,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -523,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -531,7 +529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -539,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -547,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -555,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -563,7 +561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -571,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -579,7 +577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -587,7 +585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -596,21 +594,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -634,7 +633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -642,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -650,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -674,7 +673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -682,7 +681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -690,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -699,21 +698,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -785,7 +785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -793,7 +793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -802,21 +802,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -832,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -840,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -848,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -856,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -864,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -872,7 +873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -880,7 +881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -888,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -896,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -905,21 +906,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -951,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -959,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -967,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -975,7 +979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -983,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -991,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1008,27 +1012,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="10.13"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="8.25"/>
-    <col customWidth="1" min="6" max="6" width="5.0"/>
+    <col min="2" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1117,6 +1122,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/search/excel.xlsx
+++ b/search/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\5. Activities\fourbeats\search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB6BC8-BBE2-49D8-BEBD-061F23C91BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB2BED-B96C-4D9D-B774-2FAA26E318DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/search/excel.xlsx
+++ b/search/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\5. Activities\fourbeats\search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB2BED-B96C-4D9D-B774-2FAA26E318DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD35C9-6D62-4C80-BEB0-BA8D8E3C3692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/search/excel.xlsx
+++ b/search/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\5. Activities\fourbeats\search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD35C9-6D62-4C80-BEB0-BA8D8E3C3692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD106E4-A643-4E9E-A0A8-C4B7E1139F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,9 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -917,8 +919,8 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
